--- a/data/pca/factorExposure/factorExposure_2012-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007219991744301315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002308983558036624</v>
+      </c>
+      <c r="C2">
+        <v>-0.03126611858115741</v>
+      </c>
+      <c r="D2">
+        <v>0.003689262980586752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006339381988786327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006583520502508596</v>
+      </c>
+      <c r="C4">
+        <v>-0.08394399098706613</v>
+      </c>
+      <c r="D4">
+        <v>0.07774305933390657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001386895109465295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01411433780936398</v>
+      </c>
+      <c r="C6">
+        <v>-0.1143162210029197</v>
+      </c>
+      <c r="D6">
+        <v>0.03213101350241896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001878718656319811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004631088653998128</v>
+      </c>
+      <c r="C7">
+        <v>-0.05831777361036224</v>
+      </c>
+      <c r="D7">
+        <v>0.03017059167589144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001626524580446917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005498809355700285</v>
+      </c>
+      <c r="C8">
+        <v>-0.03735693980502114</v>
+      </c>
+      <c r="D8">
+        <v>0.04224318242269187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003679819560079392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004654496635884347</v>
+      </c>
+      <c r="C9">
+        <v>-0.07073818176481068</v>
+      </c>
+      <c r="D9">
+        <v>0.07254247990258988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001839162584453158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005422570554462732</v>
+      </c>
+      <c r="C10">
+        <v>-0.05817211495263834</v>
+      </c>
+      <c r="D10">
+        <v>-0.1965507782875646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002580128402995361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005739354012953156</v>
+      </c>
+      <c r="C11">
+        <v>-0.07975528610781321</v>
+      </c>
+      <c r="D11">
+        <v>0.05908354378276372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001564576461832894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004075071737367927</v>
+      </c>
+      <c r="C12">
+        <v>-0.06412056419981593</v>
+      </c>
+      <c r="D12">
+        <v>0.0457330568012207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001432917423873111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008958583042359816</v>
+      </c>
+      <c r="C13">
+        <v>-0.06846915823318868</v>
+      </c>
+      <c r="D13">
+        <v>0.0565319674855568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0008138476671090622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00136850603041095</v>
+      </c>
+      <c r="C14">
+        <v>-0.04484445341587995</v>
+      </c>
+      <c r="D14">
+        <v>0.00468039870012061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008036910550703966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005956112547818103</v>
+      </c>
+      <c r="C15">
+        <v>-0.04175679284212445</v>
+      </c>
+      <c r="D15">
+        <v>0.02962357222959823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008202538549760898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005066721149695077</v>
+      </c>
+      <c r="C16">
+        <v>-0.06508162895375186</v>
+      </c>
+      <c r="D16">
+        <v>0.04868850711525979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00013547966835516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008662701091757433</v>
+      </c>
+      <c r="C20">
+        <v>-0.06536225163576728</v>
+      </c>
+      <c r="D20">
+        <v>0.04314686792268631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005956768442680133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009830372487658097</v>
+      </c>
+      <c r="C21">
+        <v>-0.02078625331568554</v>
+      </c>
+      <c r="D21">
+        <v>0.03850261961237177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01666025891711269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006516326870604728</v>
+      </c>
+      <c r="C22">
+        <v>-0.09382404151179083</v>
+      </c>
+      <c r="D22">
+        <v>0.1135583636368686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01700455238418035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006341425844768885</v>
+      </c>
+      <c r="C23">
+        <v>-0.09464483362027921</v>
+      </c>
+      <c r="D23">
+        <v>0.1135705853368342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001447391022739939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005504180443072257</v>
+      </c>
+      <c r="C24">
+        <v>-0.07638750975032386</v>
+      </c>
+      <c r="D24">
+        <v>0.06300105276859315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004352244233334262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002959853162032941</v>
+      </c>
+      <c r="C25">
+        <v>-0.07840062422573463</v>
+      </c>
+      <c r="D25">
+        <v>0.06488154890619334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003885975818563792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003687737411029793</v>
+      </c>
+      <c r="C26">
+        <v>-0.04134475786262493</v>
+      </c>
+      <c r="D26">
+        <v>0.02285863041798396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004591579807536579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006817206126969753</v>
+      </c>
+      <c r="C28">
+        <v>-0.1070379058294084</v>
+      </c>
+      <c r="D28">
+        <v>-0.3187662784993881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001490686834453595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003132126100740263</v>
+      </c>
+      <c r="C29">
+        <v>-0.05037237016229122</v>
+      </c>
+      <c r="D29">
+        <v>0.008061962499205011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002900840169512318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009681507735171062</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416885449694915</v>
+      </c>
+      <c r="D30">
+        <v>0.1020987314260475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0005408002586471017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006205005650202719</v>
+      </c>
+      <c r="C31">
+        <v>-0.0445714653602247</v>
+      </c>
+      <c r="D31">
+        <v>0.02846140943386244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004412686580425958</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00414517442879709</v>
+      </c>
+      <c r="C32">
+        <v>-0.03899253201700029</v>
+      </c>
+      <c r="D32">
+        <v>0.02281264971103245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001777615074461522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008626816539841714</v>
+      </c>
+      <c r="C33">
+        <v>-0.08640457201213762</v>
+      </c>
+      <c r="D33">
+        <v>0.06410572016659555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004597156763498048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004093293379533183</v>
+      </c>
+      <c r="C34">
+        <v>-0.05803806963167445</v>
+      </c>
+      <c r="D34">
+        <v>0.05377774041274166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0008264335420476071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004955452753347286</v>
+      </c>
+      <c r="C35">
+        <v>-0.04042734572093529</v>
+      </c>
+      <c r="D35">
+        <v>0.01718972045339062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003413222417585582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001026989861219741</v>
+      </c>
+      <c r="C36">
+        <v>-0.02497218170395615</v>
+      </c>
+      <c r="D36">
+        <v>0.0208313681207134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00241932913788135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009467954753575048</v>
+      </c>
+      <c r="C38">
+        <v>-0.03383694813420753</v>
+      </c>
+      <c r="D38">
+        <v>0.01676098282522409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01240647089674613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000791375477106805</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156335323834609</v>
+      </c>
+      <c r="D39">
+        <v>0.07478747544155576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009474140073920292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00271855062274216</v>
+      </c>
+      <c r="C40">
+        <v>-0.09013517470295049</v>
+      </c>
+      <c r="D40">
+        <v>0.01333205200185122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0009066879153358638</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007296019548015168</v>
+      </c>
+      <c r="C41">
+        <v>-0.03826405987569509</v>
+      </c>
+      <c r="D41">
+        <v>0.03726776744716313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003177515387392273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003842012202723285</v>
+      </c>
+      <c r="C43">
+        <v>-0.05358458672691087</v>
+      </c>
+      <c r="D43">
+        <v>0.02472526887406516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005324296370186102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003162469002348484</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094059555832305</v>
+      </c>
+      <c r="D44">
+        <v>0.06775162331577742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008670614586632896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00201584994053935</v>
+      </c>
+      <c r="C46">
+        <v>-0.03321148623234408</v>
+      </c>
+      <c r="D46">
+        <v>0.03494611208570259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002214027283455812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002698032869404511</v>
+      </c>
+      <c r="C47">
+        <v>-0.03750024674180422</v>
+      </c>
+      <c r="D47">
+        <v>0.02221186086967146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00427504032085141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006804429559536505</v>
+      </c>
+      <c r="C48">
+        <v>-0.03132217801788754</v>
+      </c>
+      <c r="D48">
+        <v>0.03272729004736763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01120026980614918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01586418603414868</v>
+      </c>
+      <c r="C49">
+        <v>-0.185032543158528</v>
+      </c>
+      <c r="D49">
+        <v>0.01532719514963095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001188673878745526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003587671212640451</v>
+      </c>
+      <c r="C50">
+        <v>-0.04339371824185186</v>
+      </c>
+      <c r="D50">
+        <v>0.03593800119819317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001148373258176042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00472826233707091</v>
+      </c>
+      <c r="C51">
+        <v>-0.0261161351348586</v>
+      </c>
+      <c r="D51">
+        <v>0.02118029220066869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001002476765472204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02111555681206276</v>
+      </c>
+      <c r="C53">
+        <v>-0.1699485023139715</v>
+      </c>
+      <c r="D53">
+        <v>0.02606714777389696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001496637412501986</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.009070351697128899</v>
+      </c>
+      <c r="C54">
+        <v>-0.05395145714963606</v>
+      </c>
+      <c r="D54">
+        <v>0.04478694045265653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003428256736843291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009730549024223869</v>
+      </c>
+      <c r="C55">
+        <v>-0.1097345988052144</v>
+      </c>
+      <c r="D55">
+        <v>0.03854215952851071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002294215449243193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0203499797080297</v>
+      </c>
+      <c r="C56">
+        <v>-0.174615650273911</v>
+      </c>
+      <c r="D56">
+        <v>0.01836154960173887</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007507355983124893</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01914583531427092</v>
+      </c>
+      <c r="C58">
+        <v>-0.109855493800056</v>
+      </c>
+      <c r="D58">
+        <v>0.06093684760598139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007083101461461227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009853782762024152</v>
+      </c>
+      <c r="C59">
+        <v>-0.1650333486051815</v>
+      </c>
+      <c r="D59">
+        <v>-0.3281004065888847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003969740394075023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02470147010704836</v>
+      </c>
+      <c r="C60">
+        <v>-0.2227748976047488</v>
+      </c>
+      <c r="D60">
+        <v>0.03434282957679644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01428813046998598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001751937449830773</v>
+      </c>
+      <c r="C61">
+        <v>-0.09459570257497717</v>
+      </c>
+      <c r="D61">
+        <v>0.05472694143471031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1631638018206797</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1466209967110592</v>
+      </c>
+      <c r="C62">
+        <v>-0.09314046783125288</v>
+      </c>
+      <c r="D62">
+        <v>0.03886649237234375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0003216578222604613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006301931014771462</v>
+      </c>
+      <c r="C63">
+        <v>-0.05485805221828133</v>
+      </c>
+      <c r="D63">
+        <v>0.02662061410200191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0008021521469867824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01483608315338508</v>
+      </c>
+      <c r="C64">
+        <v>-0.104979068335234</v>
+      </c>
+      <c r="D64">
+        <v>0.05664393783334418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002660084025301463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01784304499606125</v>
+      </c>
+      <c r="C65">
+        <v>-0.1246434146722951</v>
+      </c>
+      <c r="D65">
+        <v>0.02435744959557111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007526264395597298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01310694891768356</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596711990368395</v>
+      </c>
+      <c r="D66">
+        <v>0.1104408713273744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003929290518779066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01571681383596368</v>
+      </c>
+      <c r="C67">
+        <v>-0.06506856913599662</v>
+      </c>
+      <c r="D67">
+        <v>0.02703194145315688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005804146738410313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007867782308189302</v>
+      </c>
+      <c r="C68">
+        <v>-0.08682093343466998</v>
+      </c>
+      <c r="D68">
+        <v>-0.2610769972693874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002037694859453707</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006077514470607643</v>
+      </c>
+      <c r="C69">
+        <v>-0.05042939673936669</v>
+      </c>
+      <c r="D69">
+        <v>0.03764065773271171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0001523658503016396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001814961734889002</v>
+      </c>
+      <c r="C70">
+        <v>-0.002711767094697022</v>
+      </c>
+      <c r="D70">
+        <v>0.0003291406219934198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-1.092957636740164e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005839408018444512</v>
+      </c>
+      <c r="C71">
+        <v>-0.09443823898020062</v>
+      </c>
+      <c r="D71">
+        <v>-0.3058208175295248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003643910292026301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01612659806716948</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532566606284489</v>
+      </c>
+      <c r="D72">
+        <v>0.01661995195761777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01147554013448439</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03117992752676148</v>
+      </c>
+      <c r="C73">
+        <v>-0.2794793370136785</v>
+      </c>
+      <c r="D73">
+        <v>0.05691419661645826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00534803850723999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002023868155528171</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047142152827469</v>
+      </c>
+      <c r="D74">
+        <v>0.03546239904108191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002846701591586625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01119421135746641</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247994039473284</v>
+      </c>
+      <c r="D75">
+        <v>0.02458146690689809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008322183720349721</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02207934665401954</v>
+      </c>
+      <c r="C76">
+        <v>-0.1490613207792914</v>
+      </c>
+      <c r="D76">
+        <v>0.05711695739907621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00329512599241976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02273827019002667</v>
+      </c>
+      <c r="C77">
+        <v>-0.1206982580758798</v>
+      </c>
+      <c r="D77">
+        <v>0.08425045193501671</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001164769047893381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01501906689856572</v>
+      </c>
+      <c r="C78">
+        <v>-0.09609266248919357</v>
+      </c>
+      <c r="D78">
+        <v>0.07183358403584156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02335384756562132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03814558045971309</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574493237481381</v>
+      </c>
+      <c r="D79">
+        <v>0.03118110585739809</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006377282771448684</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01023821254393329</v>
+      </c>
+      <c r="C80">
+        <v>-0.03984833396827687</v>
+      </c>
+      <c r="D80">
+        <v>0.02864052951949379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007081377834760106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01593367754066263</v>
+      </c>
+      <c r="C81">
+        <v>-0.1279408917896544</v>
+      </c>
+      <c r="D81">
+        <v>0.0390461744554861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004195365664452688</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02014010580002895</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419714086425145</v>
+      </c>
+      <c r="D82">
+        <v>0.03407689848099623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008173280513903024</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01011023813608539</v>
+      </c>
+      <c r="C83">
+        <v>-0.05544744844447529</v>
+      </c>
+      <c r="D83">
+        <v>0.05391041141413394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0122892868563816</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01137768909621677</v>
+      </c>
+      <c r="C84">
+        <v>-0.03677795188288978</v>
+      </c>
+      <c r="D84">
+        <v>-0.005770002359972507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0136750777550443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02906076555557013</v>
+      </c>
+      <c r="C85">
+        <v>-0.1256676422269456</v>
+      </c>
+      <c r="D85">
+        <v>0.04357577025971711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001696579339063841</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005341292050240047</v>
+      </c>
+      <c r="C86">
+        <v>-0.04941809803192253</v>
+      </c>
+      <c r="D86">
+        <v>0.0286939082695402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003507714205840092</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01053131783932499</v>
+      </c>
+      <c r="C87">
+        <v>-0.1281217572017369</v>
+      </c>
+      <c r="D87">
+        <v>0.07334864367681139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01135936382501035</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002903034418824434</v>
+      </c>
+      <c r="C88">
+        <v>-0.06493364739756893</v>
+      </c>
+      <c r="D88">
+        <v>0.01834632761854142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01346607991037306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001467986080936661</v>
+      </c>
+      <c r="C89">
+        <v>-0.1464032657363039</v>
+      </c>
+      <c r="D89">
+        <v>-0.3322598287302662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00120818128631561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006768501106394778</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208314710854795</v>
+      </c>
+      <c r="D90">
+        <v>-0.3188752741278927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>2.928586723602979e-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01044532435433852</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002451259971719</v>
+      </c>
+      <c r="D91">
+        <v>0.02037400949324303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008553775140601176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001107448242080516</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360336387350738</v>
+      </c>
+      <c r="D92">
+        <v>-0.3253581975579011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002349028996921861</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005053215354261797</v>
+      </c>
+      <c r="C93">
+        <v>-0.1056249026720756</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019488395321194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002716832514054736</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02253284738912198</v>
+      </c>
+      <c r="C94">
+        <v>-0.1469363859389016</v>
+      </c>
+      <c r="D94">
+        <v>0.05256995136869002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005565615052968723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01631981226249668</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250240680295681</v>
+      </c>
+      <c r="D95">
+        <v>0.05766822392679575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.000903096905757942</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03683606074128146</v>
+      </c>
+      <c r="C97">
+        <v>-0.212680945077149</v>
+      </c>
+      <c r="D97">
+        <v>-0.004913506121014219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003229721099984699</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0371519468008257</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496735652252685</v>
+      </c>
+      <c r="D98">
+        <v>0.05098674271070422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848927870772057</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9817988690748496</v>
+      </c>
+      <c r="C99">
+        <v>0.1178411448608894</v>
+      </c>
+      <c r="D99">
+        <v>-0.02656178703405061</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001385613224749784</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003166249931376229</v>
+      </c>
+      <c r="C101">
+        <v>-0.05049015407029618</v>
+      </c>
+      <c r="D101">
+        <v>0.008427841321855648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
